--- a/7/3/Stock de valores de renta fija e intermediación financiera, según mercado de emisión 2008 a 2021 - Trimestral.xlsx
+++ b/7/3/Stock de valores de renta fija e intermediación financiera, según mercado de emisión 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>Serie</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5094,13 +5097,13 @@
         <v>391</v>
       </c>
       <c r="F53">
-        <v>73600</v>
+        <v>73393</v>
       </c>
       <c r="G53">
         <v>29245</v>
       </c>
       <c r="H53">
-        <v>44355</v>
+        <v>44148</v>
       </c>
       <c r="I53">
         <v>7529</v>
@@ -5136,7 +5139,7 @@
         <v>148</v>
       </c>
       <c r="T53">
-        <v>177523</v>
+        <v>177316</v>
       </c>
       <c r="U53">
         <v>9085</v>
@@ -5145,22 +5148,108 @@
         <v>2651</v>
       </c>
       <c r="W53">
-        <v>34107</v>
+        <v>34096</v>
       </c>
       <c r="X53">
         <v>16002</v>
       </c>
       <c r="Y53">
-        <v>18105</v>
+        <v>18094</v>
       </c>
       <c r="Z53">
         <v>17277</v>
       </c>
       <c r="AA53">
-        <v>63120</v>
+        <v>63109</v>
       </c>
       <c r="AB53">
-        <v>240643</v>
+        <v>240426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54">
+        <v>31868</v>
+      </c>
+      <c r="C54">
+        <v>31300</v>
+      </c>
+      <c r="D54">
+        <v>568</v>
+      </c>
+      <c r="E54">
+        <v>397</v>
+      </c>
+      <c r="F54">
+        <v>70629</v>
+      </c>
+      <c r="G54">
+        <v>26783</v>
+      </c>
+      <c r="H54">
+        <v>43846</v>
+      </c>
+      <c r="I54">
+        <v>7454</v>
+      </c>
+      <c r="J54">
+        <v>1740</v>
+      </c>
+      <c r="K54">
+        <v>483</v>
+      </c>
+      <c r="L54">
+        <v>1249</v>
+      </c>
+      <c r="M54">
+        <v>3982</v>
+      </c>
+      <c r="N54">
+        <v>24049</v>
+      </c>
+      <c r="O54">
+        <v>3410</v>
+      </c>
+      <c r="P54">
+        <v>20639</v>
+      </c>
+      <c r="Q54">
+        <v>51620</v>
+      </c>
+      <c r="R54">
+        <v>22938</v>
+      </c>
+      <c r="S54">
+        <v>149</v>
+      </c>
+      <c r="T54">
+        <v>185769</v>
+      </c>
+      <c r="U54">
+        <v>8996</v>
+      </c>
+      <c r="V54">
+        <v>3045</v>
+      </c>
+      <c r="W54">
+        <v>34584</v>
+      </c>
+      <c r="X54">
+        <v>16131</v>
+      </c>
+      <c r="Y54">
+        <v>18453</v>
+      </c>
+      <c r="Z54">
+        <v>20120</v>
+      </c>
+      <c r="AA54">
+        <v>66745</v>
+      </c>
+      <c r="AB54">
+        <v>252513</v>
       </c>
     </row>
   </sheetData>
